--- a/Nareen_FYP/Condition.xlsx
+++ b/Nareen_FYP/Condition.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth Shah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth Shah\Desktop\FYP_NOT_Eat\Nareen_FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Coca cola,Sugar Sweetened Beverages,Trans Fat,White Bread,Pasta,Rice,Fruit flavoured Yoghurt,Flavoured Coffee,Honey,Agave Nectar,Maple Syrup,Dried Fruit,Packaged Snack Food,Fruit Juice,French Fries,Biscuits,Sausage Gravy,Cookies,Chicken,Ham Burgers,Regular Soft Drinks,Cakes,Flavoured Water,Frozen Pizza</t>
   </si>
   <si>
-    <t>Alcohol,Coffee,Soda,Artificial Sweetners,Sorbitol,Carbonated Drinks,Pork,Veal,Sardines,Raw vegetables,Rhubarb,Onions,Corn,Fruits,Cherries,Seeded Berries,Figs,Currants,Grapes,Milk and Dairy products,Fried Food,Fatty Food,Greasy Food,Spicy Food,Processed foods, especially those with additive foods</t>
-  </si>
-  <si>
-    <t>Alcohol,Milk,French Fries,Burger,Fried or Fatty Food,Crunchy Snacks,Coffee,Orange Juice,Refined Sugar,Sweets,Chocolates,Cookies,Candies,Kids' Cereal,Dairy except Yoghurt,Refined Carbohydrates=</t>
-  </si>
-  <si>
-    <t>Alcoholic Beverages,Meats,Bacon,Turkey,Veal,Venison,Liver,Sweet Bread,Oily Fish,Jam,Fructose,Wholemeal Bread,Wholemeal Grains,Peas,Mushrooms,Soya Beans,Baked Beans,Kidney Beans=</t>
-  </si>
-  <si>
-    <t>Alcohol,Tea,Salt,Coffee,Raw Mango,Red Chilli,Spicy Food,Brinjal,Red Chilli,Garlic,Ginger,Chick Peas,Mixed Pulses(Dal),Soya Products,Red Meat,Bakery Items,French Fries,Pizza,Pickles,Soup=</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
@@ -54,16 +42,203 @@
   </si>
   <si>
     <t>Piles</t>
+  </si>
+  <si>
+    <t>Chicken Pox</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Coeliac</t>
+  </si>
+  <si>
+    <t>Chrons</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Acidity GERD</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Hypothyroid</t>
+  </si>
+  <si>
+    <t>Hyperthyroid</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Alcoholic Beverages,Meats,Bacon,Turkey,Veal,Venison,Liver,Sweet Bread,Oily Fish,Jam,Fructose,Wholemeal Bread,Wholemeal Grains,Peas,Mushrooms,Soya Beans,Baked Beans,Kidney Beans</t>
+  </si>
+  <si>
+    <t>Alcohol,Milk,French Fries,Burger,Fried or Fatty Food,Crunchy Snacks,Coffee,Orange Juice,Refined Sugar,Sweets,Chocolates,Cookies,Candies,Kids' Cereal,Dairy except Yoghurt,Refined Carbohydrates</t>
+  </si>
+  <si>
+    <t>Alcohol,Tea,Salt,Coffee,Raw Mango,Red Chilli,Spicy Food,Brinjal,Red Chilli,Garlic,Ginger,Chick Peas,Mixed Pulses(Dal),Soya Products,Red Meat,Bakery Items,French Fries,Pizza,Pickles,Soup</t>
+  </si>
+  <si>
+    <t>Alcohol,Sugar,Salt,Fried Food,White Flour,White Bread,Egg Yolks,Red Meat,Milk,Food Takeaway,Citrus Fruits,Meat,Trans Fat,Orange Juice,Oranges,Sweet Apples,Pears,Grapes,Melons,Pineapple,Bananas,Sugary Jams,Jellies</t>
+  </si>
+  <si>
+    <t>Alcohol,Coffee,Soda,Artificial Sweetners,Sorbitol,Carbonated Drinks,Pork,Veal,Sardines,Raw vegetables,Rhubarb,Onions,Corn,Fruits,Cherries,Seeded Berries,Figs,Currants,Grapes,Milk and Dairy products,Fried Food,Fatty Food,Greasy Food,Spicy Food,Processed Food</t>
+  </si>
+  <si>
+    <t>Orange Juice,Oranges,Sweet Apples,Pears,Grapes,Watermelon,Muskmelon,Pineapple,Bananas,Sugary Jams,Jellies,Dry Fruit,Almonds,Flaxseeds,Hazelnuts,Pecans,Brazil nuts,Pistachios,Chestnuts,Pumpkin Seeds,Sunflower Seeds,Soft drinks,Candy,Milk Chocolate,Pancake Syrup,Pastries,Frozen Desserts,Sugary Breakfast Cereals,Cakes,Cookies,Doughnuts</t>
+  </si>
+  <si>
+    <t>Salt,High Fat,Citrus Fruits,Dairy Products,Arginine,Fried Food,Junk Food,Acidic Food,Mungfali,Nuts,Seeds,Wheat,Oat,Rice,Grapes,Blackberries,Blueberries,Grapefruit,Oranges,Tofu,Onions,Garlic</t>
+  </si>
+  <si>
+    <t>Tannins,Black Tea,Green Tea,Rooibos Tea,Coffee,Grapes,Wine,Sorghum,Corn,Gluten,Phytate,Legumes,Brown Rice,Whole-Grain,Wheat,Nuts,Peanuts,Spinach,Parsley(Ajwain),Chocolates.</t>
+  </si>
+  <si>
+    <t>Iron Deficiency</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Arrhythmias</t>
+  </si>
+  <si>
+    <t>Kidney Failure</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Myasthenia Gravis</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>Ulcerative Colitis</t>
+  </si>
+  <si>
+    <t>Heart Disease</t>
+  </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Glaucoma</t>
+  </si>
+  <si>
+    <t>Haemorrhoids</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>AIDS</t>
+  </si>
+  <si>
+    <t>Leprosy</t>
+  </si>
+  <si>
+    <t>Nose Infection</t>
+  </si>
+  <si>
+    <t>Ear Infection</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Milk,Eggs,Calcium,Cocoa,Coffee,Apples,Peppermint,Spices,Walnuts,Raspberries,Red wine,Grape juice,Blackberries,Blueberries,Polyphenol</t>
+  </si>
+  <si>
+    <t>Barley,Beer,Pasta,Wheat Starch,Chichek Broth,Vinegar,Noodles,Spice Mixes,Bleached flour,Blue Cheese,Bread flour,Bulgur,Cake flour,Communion wafer,Cracker meal,Croutons,Couscous,Durum,Farina,Farro,Graham flour,Groats,Kamut,Malt,Malt beverages,Matzo(made with wheat),Soya Sauce,</t>
+  </si>
+  <si>
+    <t>Alcohol,Mixed Drinks,Beer,Wine,Butter,Mayonnaise,Margarine,Popcorn,Tomatoes,Oily Food,Carbonated Beverages,Coffee,Tea,Chocolate,Corn Husks,Dairy Products,Fatty Food,Foods high in fiber,Lentils,Beans,Legumes,broccoli,Onions,Nuts and Seeds,Raw Fruits,Raw Vegetables,Peanut Butter,Red Meat,Pork,Spicy Food,Wholegrains,Bran,Wholemeal Bread</t>
+  </si>
+  <si>
+    <t>Stomach Ulcer</t>
+  </si>
+  <si>
+    <t>Overeating,Eating 2 or 3 Hours before Bed,Coffee,Chocolate,Spicy Food,Alcohol,Acidic Food,Citrus,Tomatoes,Caffeine,Red Meat,Fiber,Fruits,Vegetables,White Bread,Red meat,Trans fat,Lean Meat,Dark leafy green Vegetables</t>
+  </si>
+  <si>
+    <t>Coffee,Caffeine,Fried Food,Fatty Food,Chocolate,Garlic,Onion,Spicy Food,Processed Food,Sugar and Artificial Sweetners,Chocolate,Vegetable Oil,Canola Oil,Tomatoes,Milk,Cheese,Dairy Products,Cream,Oily Salad,Oily Food,Mint and Peppermint,Processed Grains</t>
+  </si>
+  <si>
+    <t>Eggs,Milk,Peanuts,Salt,Steroids,Shellfish,Wine,Dried Fruits,Shrimp,Pickle,Packaged or prepared potatoes,Maraschino Cherries,Any Individual Allergic Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut Cured Meats,Eggs,Nuts,Wheat,Carbonated Drink,Fried Food,Cereals,Peanuts,Soybeans,Shellfish,Crab,Lobster,Snails,Oyster,Salt,Milk,Bloating,Cabbage,Broccoli,Kale,Brussels Sprout,Cauliflower, </t>
+  </si>
+  <si>
+    <t>Wheat Bran,Tofu,Whole-Wheat Bread,Canned Juice,Apple Juice,Red Wine,Sugar, Hydrogenated Oil,Fast Food,Trans fat,Processed Food,Fried Food,Refined Cereals,Pastries,High-Fat Dairy Products,Fruit Juice,Regular Soda,Diet Soda,Toast,Light Dressing,Ketchup,Coffee,Energy Drinks,Alcohol,Frosting,SoySauce,Doughnut</t>
+  </si>
+  <si>
+    <t>Salt,Deli Meat,Frozen pizza,Pickles,Canned Soup,Tomato Products,Sugar,Packaged Food,Chicken,Coffee,Alcohol,Soft Drinks,Pastries,Sauces,Fatty Food,French Fries,bacon,Whole Milk,Doughnut,Frozen Pot Pies,Margarine,Ramen Noodles,Red Meat</t>
+  </si>
+  <si>
+    <t>Milk,Butter,Corn,Wasabi,Asparagus,Cabbage,Spinach,Almonds,Cashews,Kamut,Kasha,Peanuts,Walnuts,Pumpkin Seed,Farina,Wheat,Grapes,Grape Juice,Peaches,Strawberries,Wine,Soy Milk,Soy Bean Oil,Soy Flour,Junk Food,Black Tea,Green Tea,Tofu,Soy,Miso,Edamame,Cauliflower,Brocolli,Cruciferous Vegetables,Bread,Pasta,Rice,Gluten Products,Butter,Meat,Fried Food,Chocolate,Cheesecake,Sugary Food,Processed Food,Beans,Legumes,Vegetables,Coffee,Alcohol,</t>
+  </si>
+  <si>
+    <t>Iodized Salt,Vitamins or Supplements containing Iodine,Herbal Supplements,Alginate,Egg,Milk chocolate,Soy Products,Rice,Crackers,Cookies,Legumes,Cake,Pastries</t>
+  </si>
+  <si>
+    <t>Salt,Soft Drinks,Sugar,Cakes,candy,Canned Soup,Juice,Biscuits,Granola bars,Pasta Sauces,Alcohol,Non-Organic Fruits and Veggies,Popcorn,Doughnut,Soda,Caffeine,Chocolate,Alcohol,Legumes,Mushrooms,Inflammatory Foods,Raw Spinach,Swiss Chard,Red Meat</t>
+  </si>
+  <si>
+    <t>Fatty Food,Spicy Food,Fried Food,Refined Food,Cake,Pastries,Maida,Pizza,Pasta,Burger,Bread,Sauces,Pickles,Tea,Coffee,Whole grain cereals,Green leafy vegetables,Thick skin fruits,Caffeine</t>
+  </si>
+  <si>
+    <t>Salt,Caffeine,Coffee,Tea,Leafy green vegetables,Brocolli,Kale,Spinach,Asparagus,Spring Onion,Vitamin K,Alcohol,Yeast,Pizza,Cured Meat,Cheddar Cheese,Blue Cheese,Swiss Cheese,Gorgonzola,Camembert,Sauces,Soy sauce,Fish sauce,Beans</t>
+  </si>
+  <si>
+    <t>Salt,Garlic,High-Sodium Products,Packaged Food,Soda,Sweetners,Processed Deli Meat,Butter,Mayonnaise,Frozen Meals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E30"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,23 +580,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,34 +607,280 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>